--- a/doc/log/袁帅.xlsx
+++ b/doc/log/袁帅.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A491F1A-B233-4D29-A836-DD34460E3916}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C553244-9A82-47E0-B0AF-9B70DACD0BE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20760" windowHeight="11820" xr2:uid="{7DF36359-20B2-4E6D-8083-570ABC46D0C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7DF36359-20B2-4E6D-8083-570ABC46D0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>姓名：袁帅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +113,302 @@
   </si>
   <si>
     <t>利用hibernate+JPA自动建表成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/15/19:00-2019/04/15/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了log4j的基本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/16/19:00-2019/04/16/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/17/19:00-2019/04/17/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/19/19:00-2019/04/19/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/21/19:00-2019/04/21/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了maven的相关命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置日志输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/26/17:00-2019/05/25/19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建springMVC环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入相关依赖包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解http协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/27/19:00-2019/05/27/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/28/19:00-2019/05/28/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/29/19:00-2019/05/29/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/30/19:00-2019/05/30/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/01/19:00-2019/06/01/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/02/19:00-2019/06/02/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/03/19:00-2019/06/03/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/05/19:00-2019/06/05/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写项目的模块设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写项目的体系结构设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对项目的总体设计进行总结梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解项目的各个模块信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/25/19:00-2019/04/25/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/27/19:00-2019/04/27/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/28/19:00-2019/04/28/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/03/19:00-2019/05/03/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/05/19:00-2019/05/05/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/10/19:00-2019/05/10/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/12/19:00-2019/05/12/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/13/19:00-2019/05/13/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对实体类表的基本信息进行完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写dao层实体类的增删改查功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写dao层实体的测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解eclipse与github的合作开发使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring事务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习springMVC原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层的基本信息配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层的搭建，基础整合springMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/06/19:00-2019/06/06/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/08/19:00-2019/06/08/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/09/19:00-2019/06/09/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/10/19:00-2019/06/10/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/12/19:00-2019/06/12/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/14/19:00-2019/06/14/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/15/19:00-2019/06/15/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/16/19:00-2019/06/16/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/17/19:00-2019/06/17/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/18/19:00-2019/06/18/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/20/19:00-2019/06/20/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/23/19:00-2019/06/23/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/24/19:00-2019/06/24/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/25/19:00-2019/06/25/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/26/19:00-2019/06/26/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao层基本流程的了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao层环境的搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring-data-jpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-data-jpa的总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对项目的总结和继续完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jquery-ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写web-controller的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对web层代码的改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试web层代码功能，返回json数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步了解vue与elementUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用npm命令运行网页代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端连接成功，在网页上显示增删改查功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对网页的美观优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建vue运行环境，根据模板写前端网页代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建项目的前端代码结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue项目的基本代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在前段编写实体类表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体类表格基本信息的完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体类表格基本功能的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C20B0-9896-4EE0-9E4E-C201440358D0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,35 +845,334 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
